--- a/分潤試算表.xlsx
+++ b/分潤試算表.xlsx
@@ -78,26 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(3+2客)+(高種子: 4+3客)or(低種子: 4客+3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3+(3(客P2)+2)+(高種子: 4+3客)or(低種子: 4客+3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3+(3(客P1)+2)+(高種子: 4+3客)or(低種子: 4客+3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3(客P4)+(3(客P1)+2)+(高種子: 4+3客)or(低種子: 4客+3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3(客P3)+(3(客P2)+2)+(高種子: 4+3客)or(低種子: 4客+3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2(客P4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,6 +99,26 @@
   </si>
   <si>
     <t>票價收入 85% 都歸主場球隊，其餘 15% 則歸客隊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3+2客)+(高種子: 4+3客)or(低種子: 4客+3)+(高種子: 4+3客)or(低種子: 4客+3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3+(3(客P2)+2)+(高種子: 4+3客)or(低種子: 4客+3)+(高種子: 4+3客)or(低種子: 4客+3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3+(3(客P1)+2)+(高種子: 4+3客)or(低種子: 4客+3)+(高種子: 4+3客)or(低種子: 4客+3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3(客P4)+(3(客P1)+2)+(高種子: 4+3客)or(低種子: 4客+3)+(高種子: 4+3客)or(低種子: 4客+3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3(客P3)+(3(客P2)+2)+(高種子: 4+3客)or(低種子: 4客+3)+(高種子: 4+3客)or(低種子: 4客+3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +491,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -571,7 +571,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -592,7 +592,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -612,13 +612,13 @@
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F11" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -627,13 +627,13 @@
         <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F13" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -649,27 +649,27 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
